--- a/model/Fishing_method_SDMX_Model.xlsx
+++ b/model/Fishing_method_SDMX_Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\rara\RAP\Agriculture\sdd-household-primary-activity-processing\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4389069D-66AA-49B4-9785-FD4FC58F23AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7ABFA9-496B-4CBA-8E09-FA83CE5236CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="135" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DSD" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="64">
   <si>
     <t>Concepts</t>
   </si>
@@ -113,9 +113,6 @@
     <t>Indicator</t>
   </si>
   <si>
-    <t>CL_INDICATOR</t>
-  </si>
-  <si>
     <t>OBS_VALUE</t>
   </si>
   <si>
@@ -227,25 +224,16 @@
     <t>Othe fishing method</t>
   </si>
   <si>
-    <t>CL_FISHING_SPEAR</t>
-  </si>
-  <si>
-    <t>CL_FISHING_GLEANING</t>
-  </si>
-  <si>
-    <t>CL_FISHING_LINE</t>
-  </si>
-  <si>
-    <t>CL_FISHING_NET</t>
-  </si>
-  <si>
-    <t>CL_FISHING_OTHER_METHOD</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>CL_FISHING_METHOD_INDICATORS</t>
+  </si>
+  <si>
+    <t>CL_COM_YESNO</t>
   </si>
 </sst>
 </file>
@@ -602,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,7 +601,7 @@
     <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -725,18 +713,18 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
         <v>44</v>
-      </c>
-      <c r="B6" t="s">
-        <v>45</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -748,7 +736,7 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G6" t="s">
         <v>9</v>
@@ -756,10 +744,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
         <v>47</v>
-      </c>
-      <c r="B7" t="s">
-        <v>48</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -771,7 +759,7 @@
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s">
         <v>9</v>
@@ -779,13 +767,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -794,21 +782,21 @@
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
         <v>52</v>
       </c>
-      <c r="B9" t="s">
-        <v>53</v>
-      </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -820,18 +808,18 @@
         <v>63</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
         <v>55</v>
       </c>
-      <c r="B10" t="s">
-        <v>56</v>
-      </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -840,18 +828,21 @@
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
         <v>57</v>
       </c>
-      <c r="B11" t="s">
-        <v>58</v>
-      </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -860,18 +851,21 @@
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s">
         <v>59</v>
       </c>
-      <c r="B12" t="s">
-        <v>60</v>
-      </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -880,27 +874,30 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
@@ -908,22 +905,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
         <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>30</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
         <v>9</v>
@@ -931,22 +928,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s">
         <v>9</v>
@@ -954,22 +951,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
         <v>9</v>
@@ -985,7 +982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14318586-0638-4AAA-9EF3-71D17652D048}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -996,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1004,23 +1001,23 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1043,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1051,23 +1048,23 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1090,7 +1087,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1098,23 +1095,23 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1137,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1145,23 +1142,23 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1189,7 +1186,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1197,23 +1194,23 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1263,23 +1260,23 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/model/Fishing_method_SDMX_Model.xlsx
+++ b/model/Fishing_method_SDMX_Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\rara\RAP\Agriculture\sdd-household-primary-activity-processing\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7ABFA9-496B-4CBA-8E09-FA83CE5236CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687B3C10-3D78-48D0-9119-7302A5ECEA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -104,9 +104,6 @@
     <t>Reference area</t>
   </si>
   <si>
-    <t>CL_AREA</t>
-  </si>
-  <si>
     <t>INDICATOR</t>
   </si>
   <si>
@@ -230,10 +227,13 @@
     <t>No</t>
   </si>
   <si>
-    <t>CL_FISHING_METHOD_INDICATORS</t>
-  </si>
-  <si>
     <t>CL_COM_YESNO</t>
+  </si>
+  <si>
+    <t>CL_COM_GEO_PICT_L123</t>
+  </si>
+  <si>
+    <t>CL_HH_PRIMARY_ACTIVITY_INDICATORS</t>
   </si>
 </sst>
 </file>
@@ -591,7 +591,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,7 +601,7 @@
     <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -690,7 +690,7 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
@@ -698,10 +698,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
         <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -713,18 +713,18 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
         <v>43</v>
-      </c>
-      <c r="B6" t="s">
-        <v>44</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -736,7 +736,7 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s">
         <v>9</v>
@@ -744,10 +744,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
         <v>46</v>
-      </c>
-      <c r="B7" t="s">
-        <v>47</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -759,7 +759,7 @@
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s">
         <v>9</v>
@@ -767,13 +767,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -782,7 +782,7 @@
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G8" t="s">
         <v>9</v>
@@ -790,13 +790,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
         <v>51</v>
       </c>
-      <c r="B9" t="s">
-        <v>52</v>
-      </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -805,7 +805,7 @@
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G9" t="s">
         <v>9</v>
@@ -813,13 +813,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
         <v>54</v>
       </c>
-      <c r="B10" t="s">
-        <v>55</v>
-      </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -828,7 +828,7 @@
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G10" t="s">
         <v>9</v>
@@ -836,13 +836,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
         <v>56</v>
       </c>
-      <c r="B11" t="s">
-        <v>57</v>
-      </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -851,7 +851,7 @@
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G11" t="s">
         <v>9</v>
@@ -859,13 +859,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
         <v>58</v>
       </c>
-      <c r="B12" t="s">
-        <v>59</v>
-      </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -874,7 +874,7 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G12" t="s">
         <v>9</v>
@@ -882,22 +882,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
@@ -905,22 +905,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
         <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>29</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G14" t="s">
         <v>9</v>
@@ -928,22 +928,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s">
         <v>9</v>
@@ -951,22 +951,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G16" t="s">
         <v>9</v>
@@ -993,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1001,23 +1001,23 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1040,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1048,23 +1048,23 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1087,7 +1087,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1095,23 +1095,23 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1134,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1142,23 +1142,23 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1186,7 +1186,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1194,23 +1194,23 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1260,23 +1260,23 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/model/Fishing_method_SDMX_Model.xlsx
+++ b/model/Fishing_method_SDMX_Model.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\rara\RAP\Agriculture\sdd-household-primary-activity-processing\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687B3C10-3D78-48D0-9119-7302A5ECEA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8474E8A-D70B-45D9-ADD9-DF2343C1D4BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="72">
   <si>
     <t>Concepts</t>
   </si>
@@ -98,9 +98,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>REF_AREA</t>
-  </si>
-  <si>
     <t>Reference area</t>
   </si>
   <si>
@@ -131,15 +128,9 @@
     <t>Attribute</t>
   </si>
   <si>
-    <t>CL_UNIT_MEASURE</t>
-  </si>
-  <si>
     <t>Observation Status</t>
   </si>
   <si>
-    <t>COMMENT</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -155,9 +146,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>CL_OBS_STATUS</t>
-  </si>
-  <si>
     <t>_T</t>
   </si>
   <si>
@@ -234,6 +222,42 @@
   </si>
   <si>
     <t>CL_HH_PRIMARY_ACTIVITY_INDICATORS</t>
+  </si>
+  <si>
+    <t>GEO_PICT</t>
+  </si>
+  <si>
+    <t>DATA_SOURCE</t>
+  </si>
+  <si>
+    <t>Data source</t>
+  </si>
+  <si>
+    <t>OBS_COMMENT</t>
+  </si>
+  <si>
+    <t>CONF_STATUS</t>
+  </si>
+  <si>
+    <t>Confidentiality status</t>
+  </si>
+  <si>
+    <t>CL_COM_OBS_STATUS</t>
+  </si>
+  <si>
+    <t>CL_COM_UNIT_MEASURE</t>
+  </si>
+  <si>
+    <t>UNIT_MULT</t>
+  </si>
+  <si>
+    <t>Unit multiplier</t>
+  </si>
+  <si>
+    <t>CL_COM_UNIT_MULT</t>
+  </si>
+  <si>
+    <t>CL_COM_CONF_STATUS</t>
   </si>
 </sst>
 </file>
@@ -588,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A14" sqref="A14:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,10 +699,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -690,7 +714,7 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
@@ -698,10 +722,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -713,18 +737,18 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -736,7 +760,7 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
         <v>9</v>
@@ -744,10 +768,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -759,7 +783,7 @@
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G7" t="s">
         <v>9</v>
@@ -767,13 +791,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -782,7 +806,7 @@
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G8" t="s">
         <v>9</v>
@@ -790,13 +814,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -805,7 +829,7 @@
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G9" t="s">
         <v>9</v>
@@ -813,13 +837,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -828,7 +852,7 @@
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G10" t="s">
         <v>9</v>
@@ -836,13 +860,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -851,7 +875,7 @@
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G11" t="s">
         <v>9</v>
@@ -859,13 +883,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -874,7 +898,7 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G12" t="s">
         <v>9</v>
@@ -882,22 +906,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
@@ -905,22 +929,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
         <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>28</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="G14" t="s">
         <v>9</v>
@@ -928,22 +952,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="G15" t="s">
         <v>9</v>
@@ -954,21 +978,90 @@
         <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
         <v>15</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" t="s">
         <v>33</v>
       </c>
-      <c r="G16" t="s">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" t="s">
         <v>9</v>
       </c>
     </row>
@@ -993,7 +1086,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1001,23 +1094,23 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1040,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1048,23 +1141,23 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1087,7 +1180,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1095,23 +1188,23 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1134,7 +1227,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1142,23 +1235,23 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1186,7 +1279,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1194,23 +1287,23 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1260,23 +1353,23 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
         <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
